--- a/scripts/anoop_publications.xlsx
+++ b/scripts/anoop_publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankunchu\Documents\src\anoopkunchukuttan.github.io\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1AE58E-0C00-4077-9F32-432E72376545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30560D7A-4682-4934-8771-7B7C13C5B5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44880" yWindow="13680" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="449">
   <si>
     <t>pub_year</t>
   </si>
@@ -524,15 +524,6 @@
     <t>jnoUuGcAAAAJ:vRqMK49ujn8C</t>
   </si>
   <si>
-    <t>Partially modelling word reordering as a sequence labeling problem, COLING 2012</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/scholar?cluster=2166415935246511390&amp;hl=en&amp;oi=scholarr</t>
-  </si>
-  <si>
-    <t>jnoUuGcAAAAJ:eJXPG6dFmWUC</t>
-  </si>
-  <si>
     <t>Towards Leaving No Indic Language Behind: Building Monolingual Corpora, Benchmark and Models for Indic Languages</t>
   </si>
   <si>
@@ -893,12 +884,6 @@
     <t>jnoUuGcAAAAJ:dTyEYWd-f8wC</t>
   </si>
   <si>
-    <t>Integrating Neural Probabilistic Language Models with SMT for English-Indonesian Translation</t>
-  </si>
-  <si>
-    <t>jnoUuGcAAAAJ:kRWSkSYxWN8C</t>
-  </si>
-  <si>
     <t>Translation &amp; Transliteration between Related Languages</t>
   </si>
   <si>
@@ -1187,9 +1172,6 @@
     <t xml:space="preserve">Doddapaneni, Sumanth; Khan, Mohammed Safi Ur Rahman; Venkatesh, Dilip; Dabre, Raj; Kunchukuttan, Anoop; Khapra, Mitesh M; </t>
   </si>
   <si>
-    <t>NLP/LLM/Evaluation</t>
-  </si>
-  <si>
     <t>BhasaAnuvaad: A Speech Translation Dataset for 13 Indian Languages</t>
   </si>
   <si>
@@ -1211,9 +1193,6 @@
     <t>arXiv preprint arXiv:2411.19096</t>
   </si>
   <si>
-    <t>NLP/Speech/Translation</t>
-  </si>
-  <si>
     <t>arXiv preprint arXiv:2502.07424</t>
   </si>
   <si>
@@ -1223,9 +1202,6 @@
     <t xml:space="preserve">Saji, Alan; Husain, Jaavid Aktar; Jayakumar, Thanmay; Dabre, Raj; Kunchukuttan, Anoop; Khapra, Mitesh M; Puduppully, Ratish; </t>
   </si>
   <si>
-    <t>NLP/LLM/Multilingual</t>
-  </si>
-  <si>
     <t>https://aclanthology.org/2024.lrec-main.1345/</t>
   </si>
   <si>
@@ -1296,6 +1272,114 @@
   </si>
   <si>
     <t>ICON</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>NLP/MWE</t>
+  </si>
+  <si>
+    <t>Workshop on Reordering for Statistical Machine Translation</t>
+  </si>
+  <si>
+    <t>NLP/Translation/Crowdsourcing</t>
+  </si>
+  <si>
+    <t>NLP/Grammar-Correction</t>
+  </si>
+  <si>
+    <t>NLP/Transliteration/Crowdsourcing</t>
+  </si>
+  <si>
+    <t>NLP/Translation/Indic/Multilingual</t>
+  </si>
+  <si>
+    <t>NLP/Translation/Multilingual</t>
+  </si>
+  <si>
+    <t>NLP/Transliteration</t>
+  </si>
+  <si>
+    <t>NLP/Transliteration/Indic/Multilingual</t>
+  </si>
+  <si>
+    <t>NLP/Translation/Indic</t>
+  </si>
+  <si>
+    <t>NLP/Translation/Transliteration/Indic/Multilingual</t>
+  </si>
+  <si>
+    <t>NLP/Multilingual</t>
+  </si>
+  <si>
+    <t>Deep_Learning</t>
+  </si>
+  <si>
+    <t>NLP/Transliteration/Multilingual/Indic</t>
+  </si>
+  <si>
+    <t>NLP/Representation_Learning</t>
+  </si>
+  <si>
+    <t>NLP/LM/Indic</t>
+  </si>
+  <si>
+    <t>NLP/Indic</t>
+  </si>
+  <si>
+    <t>NLP/LM/Indic/Evaluation</t>
+  </si>
+  <si>
+    <t>NLP/LM/Multilingual</t>
+  </si>
+  <si>
+    <t>NLP/LM/Evaluation/Multilingual</t>
+  </si>
+  <si>
+    <t>Speech/ASR/Indic</t>
+  </si>
+  <si>
+    <t>NLP/LM/Translation</t>
+  </si>
+  <si>
+    <t>NLP/Multilingual/Indic/Evaluation</t>
+  </si>
+  <si>
+    <t>NLP/Translation/Indic/Evaluation</t>
+  </si>
+  <si>
+    <t>NLP/Indic/Evaluation</t>
+  </si>
+  <si>
+    <t>Speech/Indic</t>
+  </si>
+  <si>
+    <t>NLP/Transliteration/Evaluation/Multilingual</t>
+  </si>
+  <si>
+    <t>Deep_Learning/Efficiency</t>
+  </si>
+  <si>
+    <t>NLP/Translation/Evaluation/Indic</t>
+  </si>
+  <si>
+    <t>NLP/LM/Indic/Multilingual</t>
+  </si>
+  <si>
+    <t>NLP/LM/Evaluation/Multilingual/Indic</t>
+  </si>
+  <si>
+    <t>NLP/Translation/Indic/Evaluation/Multilingual</t>
+  </si>
+  <si>
+    <t>NLP/LM/Translation/Multilingual</t>
+  </si>
+  <si>
+    <t>NLP/Speech/Translation/Indic/Multilingual/Multimodal</t>
+  </si>
+  <si>
+    <t>NLP/Translation/Multilingual/Indic</t>
   </si>
 </sst>
 </file>
@@ -1707,11 +1791,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1755,10 +1839,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1766,22 +1850,22 @@
         <v>2025</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1792,22 +1876,22 @@
         <v>2025</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1816,11 +1900,11 @@
       <c r="A4" s="3">
         <v>2024</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>365</v>
+      <c r="B4" s="3" t="s">
+        <v>432</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -1829,10 +1913,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1842,22 +1926,22 @@
         <v>2024</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>370</v>
+        <v>448</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1867,22 +1951,22 @@
         <v>2024</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1892,22 +1976,22 @@
         <v>2024</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1917,22 +2001,22 @@
         <v>2024</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1942,22 +2026,22 @@
         <v>2024</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1967,25 +2051,25 @@
         <v>2024</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1993,25 +2077,25 @@
         <v>2024</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>365</v>
+        <v>432</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2019,22 +2103,22 @@
         <v>2024</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>370</v>
+        <v>442</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2042,25 +2126,25 @@
         <v>2024</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>420</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2068,28 +2152,28 @@
         <v>2024</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>8</v>
+        <v>441</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="J14" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2097,13 +2181,13 @@
         <v>2023</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>8</v>
+        <v>440</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>154</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>155</v>
@@ -2112,7 +2196,7 @@
         <v>156</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>157</v>
@@ -2123,25 +2207,25 @@
         <v>2023</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>8</v>
+        <v>444</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="G16" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2149,25 +2233,25 @@
         <v>2023</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>8</v>
+        <v>439</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2175,25 +2259,25 @@
         <v>2023</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>8</v>
+        <v>439</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2201,25 +2285,25 @@
         <v>2023</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>8</v>
+        <v>438</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2227,25 +2311,25 @@
         <v>2023</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>8</v>
+        <v>437</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
@@ -2253,25 +2337,25 @@
         <v>2023</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>8</v>
+        <v>445</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2279,25 +2363,25 @@
         <v>2023</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>8</v>
+        <v>436</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2305,25 +2389,25 @@
         <v>2023</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>8</v>
+        <v>446</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2331,25 +2415,25 @@
         <v>2023</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>8</v>
+        <v>435</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2357,25 +2441,25 @@
         <v>2023</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>8</v>
+        <v>430</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="100.8" x14ac:dyDescent="0.55000000000000004">
@@ -2383,13 +2467,13 @@
         <v>2022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>8</v>
+        <v>419</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>26</v>
@@ -2398,7 +2482,7 @@
         <v>27</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>28</v>
@@ -2410,22 +2494,22 @@
         <v>2022</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>8</v>
+        <v>429</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>63</v>
@@ -2437,7 +2521,7 @@
         <v>2022</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>8</v>
+        <v>434</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>77</v>
@@ -2452,7 +2536,7 @@
         <v>80</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>81</v>
@@ -2464,22 +2548,22 @@
         <v>2022</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>8</v>
+        <v>433</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>115</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>116</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>117</v>
@@ -2491,25 +2575,25 @@
         <v>2022</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>8</v>
+        <v>430</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="J30" s="7"/>
     </row>
@@ -2518,25 +2602,25 @@
         <v>2022</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>8</v>
+        <v>430</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="J31" s="7"/>
     </row>
@@ -2545,25 +2629,25 @@
         <v>2021</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>8</v>
+        <v>430</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2571,13 +2655,13 @@
         <v>2021</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>8</v>
+        <v>432</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>51</v>
@@ -2586,7 +2670,7 @@
         <v>52</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>53</v>
@@ -2598,25 +2682,25 @@
         <v>2021</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>8</v>
+        <v>422</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="J34" s="7"/>
     </row>
@@ -2625,25 +2709,25 @@
         <v>2021</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>8</v>
+        <v>424</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="J35" s="7"/>
     </row>
@@ -2652,25 +2736,25 @@
         <v>2021</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>8</v>
+        <v>420</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J36" s="7"/>
     </row>
@@ -2679,25 +2763,25 @@
         <v>2021</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>8</v>
+        <v>423</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J37" s="7"/>
     </row>
@@ -2706,25 +2790,25 @@
         <v>2021</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>278</v>
       </c>
       <c r="J38" s="7"/>
     </row>
@@ -2733,13 +2817,13 @@
         <v>2020</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>8</v>
+        <v>431</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>10</v>
@@ -2748,7 +2832,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>14</v>
@@ -2760,22 +2844,22 @@
         <v>2020</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>8</v>
+        <v>420</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>20</v>
@@ -2787,13 +2871,13 @@
         <v>2020</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>22</v>
@@ -2802,7 +2886,7 @@
         <v>23</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>24</v>
@@ -2814,7 +2898,7 @@
         <v>2020</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>8</v>
+        <v>430</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>29</v>
@@ -2826,10 +2910,10 @@
         <v>13</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>30</v>
@@ -2841,13 +2925,13 @@
         <v>2020</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>8</v>
+        <v>429</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>36</v>
@@ -2856,7 +2940,7 @@
         <v>37</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>38</v>
@@ -2868,13 +2952,13 @@
         <v>2020</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>8</v>
+        <v>419</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>70</v>
@@ -2883,7 +2967,7 @@
         <v>97</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>98</v>
@@ -2895,22 +2979,22 @@
         <v>2020</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>8</v>
+        <v>428</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>122</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>123</v>
@@ -2922,13 +3006,13 @@
         <v>2020</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>8</v>
+        <v>423</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>133</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>134</v>
@@ -2937,7 +3021,7 @@
         <v>135</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>136</v>
@@ -2949,10 +3033,10 @@
         <v>2020</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>8</v>
+        <v>423</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>12</v>
@@ -2961,13 +3045,13 @@
         <v>13</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J47" s="7"/>
     </row>
@@ -2976,25 +3060,25 @@
         <v>2020</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>8</v>
+        <v>420</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J48" s="7"/>
     </row>
@@ -3003,13 +3087,13 @@
         <v>2019</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>8</v>
+        <v>428</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>32</v>
@@ -3018,7 +3102,7 @@
         <v>33</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>34</v>
@@ -3030,22 +3114,22 @@
         <v>2019</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>8</v>
+        <v>420</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>60</v>
@@ -3057,25 +3141,25 @@
         <v>2019</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="J51" s="7"/>
     </row>
@@ -3084,22 +3168,22 @@
         <v>2018</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>8</v>
+        <v>423</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>18</v>
@@ -3111,7 +3195,7 @@
         <v>2018</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>8</v>
+        <v>426</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>64</v>
@@ -3126,7 +3210,7 @@
         <v>67</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>68</v>
@@ -3138,13 +3222,13 @@
         <v>2018</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>8</v>
+        <v>427</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>100</v>
@@ -3153,7 +3237,7 @@
         <v>101</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>102</v>
@@ -3165,22 +3249,22 @@
         <v>2018</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>8</v>
+        <v>425</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>119</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>120</v>
@@ -3192,13 +3276,13 @@
         <v>2018</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>8</v>
+        <v>420</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>125</v>
@@ -3207,7 +3291,7 @@
         <v>126</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>127</v>
@@ -3219,13 +3303,13 @@
         <v>2018</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>8</v>
+        <v>420</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>138</v>
@@ -3234,7 +3318,7 @@
         <v>139</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>140</v>
@@ -3246,13 +3330,13 @@
         <v>2018</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>8</v>
+        <v>424</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
@@ -3261,10 +3345,10 @@
         <v>12</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J58" s="7"/>
     </row>
@@ -3273,25 +3357,25 @@
         <v>2018</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J59" s="7"/>
     </row>
@@ -3300,7 +3384,7 @@
         <v>2017</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>8</v>
+        <v>420</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>82</v>
@@ -3315,7 +3399,7 @@
         <v>84</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>85</v>
@@ -3326,13 +3410,13 @@
         <v>2017</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>103</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>104</v>
@@ -3341,7 +3425,7 @@
         <v>105</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>106</v>
@@ -3352,25 +3436,25 @@
         <v>2017</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>8</v>
+        <v>420</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3378,13 +3462,13 @@
         <v>2016</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>8</v>
+        <v>419</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>70</v>
@@ -3393,7 +3477,7 @@
         <v>71</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>72</v>
@@ -3404,13 +3488,13 @@
         <v>2016</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>8</v>
+        <v>420</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>108</v>
@@ -3419,7 +3503,7 @@
         <v>109</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>110</v>
@@ -3430,7 +3514,7 @@
         <v>2016</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>141</v>
@@ -3445,7 +3529,7 @@
         <v>143</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>144</v>
@@ -3456,25 +3540,25 @@
         <v>2016</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>8</v>
+        <v>421</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H66" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -3482,54 +3566,54 @@
         <v>2016</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="C67" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H67" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="4">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>8</v>
+        <v>422</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>286</v>
+        <v>46</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>314</v>
+        <v>409</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="4">
         <v>2015</v>
       </c>
@@ -3537,22 +3621,22 @@
         <v>8</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>417</v>
+        <v>87</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3560,25 +3644,25 @@
         <v>2015</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>8</v>
+        <v>421</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3586,77 +3670,77 @@
         <v>2015</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="4">
         <v>2015</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>8</v>
+        <v>417</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>158</v>
+        <v>225</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>159</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="4">
         <v>2015</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>159</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>349</v>
+        <v>12</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3664,51 +3748,51 @@
         <v>2015</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>8</v>
+        <v>420</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>159</v>
+        <v>410</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>12</v>
+        <v>320</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="4">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>8</v>
+        <v>419</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>288</v>
+        <v>39</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>418</v>
+        <v>16</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>289</v>
+        <v>40</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3716,103 +3800,103 @@
         <v>2014</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>8</v>
+        <v>416</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="4">
         <v>2014</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>12</v>
+        <v>408</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="4">
         <v>2014</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>8</v>
+        <v>418</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>416</v>
+        <v>92</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="4">
         <v>2014</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -3820,51 +3904,51 @@
         <v>2014</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>8</v>
+        <v>417</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="4">
         <v>2014</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3872,181 +3956,181 @@
         <v>2014</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>188</v>
+        <v>286</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>189</v>
+        <v>410</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>190</v>
+        <v>287</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="4">
         <v>2014</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="4">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>8</v>
+        <v>417</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>294</v>
+        <v>190</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>295</v>
+        <v>191</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>296</v>
+        <v>192</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="4">
         <v>2013</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>8</v>
+        <v>416</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="4">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>8</v>
+        <v>416</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>231</v>
+        <v>111</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>232</v>
+        <v>314</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>233</v>
+        <v>112</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>234</v>
+        <v>113</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="4">
         <v>2012</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>111</v>
+        <v>293</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>319</v>
+        <v>415</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>113</v>
+        <v>294</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="4">
         <v>2012</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>8</v>
+        <v>414</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>163</v>
+        <v>296</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>70</v>
+        <v>297</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>346</v>
+        <v>411</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>165</v>
+        <v>298</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -4054,62 +4138,62 @@
         <v>2012</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>346</v>
+        <v>411</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="4">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>8</v>
+        <v>414</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>301</v>
+        <v>42</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>12</v>
+        <v>412</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>302</v>
+        <v>43</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>419</v>
+        <v>344</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="4">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>8</v>
+        <v>414</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>304</v>
+        <v>233</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>12</v>
@@ -4118,96 +4202,44 @@
         <v>13</v>
       </c>
       <c r="F91" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G91" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="4">
-        <v>2008</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="E92" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="4">
-        <v>2007</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="H93" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="4">
-        <v>2006</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:H94">
-    <sortCondition descending="1" ref="A15:A94"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:H92">
+    <sortCondition descending="1" ref="A15:A92"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scripts/anoop_publications.xlsx
+++ b/scripts/anoop_publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankunchu\Documents\src\anoopkunchukuttan.github.io\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30560D7A-4682-4934-8771-7B7C13C5B5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58830E9-5EFB-49A4-936C-83942BB38F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44880" yWindow="13680" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="450">
   <si>
     <t>pub_year</t>
   </si>
@@ -1115,9 +1115,6 @@
     <t>Ananya Sai B, Tanay Dixit,  Vignesh Nagarajan,  Anoop Kunchukuttan,  Pratyush Kumar,  Mitesh M Khapra,  Raj Dabre</t>
   </si>
   <si>
-    <t>NLP/LLM</t>
-  </si>
-  <si>
     <t>IndicLLMSuite: A Blueprint for Creating Pre-training and Fine-Tuning Datasets for Indian Languages.</t>
   </si>
   <si>
@@ -1319,6 +1316,9 @@
     <t>NLP/Transliteration/Multilingual/Indic</t>
   </si>
   <si>
+    <t>NLP/LM</t>
+  </si>
+  <si>
     <t>NLP/Representation_Learning</t>
   </si>
   <si>
@@ -1380,6 +1380,9 @@
   </si>
   <si>
     <t>NLP/Translation/Multilingual/Indic</t>
+  </si>
+  <si>
+    <t>Anoop Kunchukuttan, Raj Dabre, Rudramurthy V, Mohammed Safi Ur Rahman, Thanmay Jayakumar</t>
   </si>
 </sst>
 </file>
@@ -1795,7 +1798,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1839,10 +1842,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>400</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1853,16 +1856,16 @@
         <v>432</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>320</v>
@@ -1879,16 +1882,16 @@
         <v>432</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>388</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>302</v>
@@ -1904,7 +1907,7 @@
         <v>432</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -1913,7 +1916,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>320</v>
@@ -1929,16 +1932,16 @@
         <v>448</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>384</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>302</v>
@@ -1954,16 +1957,16 @@
         <v>447</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>380</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>302</v>
@@ -1979,16 +1982,16 @@
         <v>433</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>378</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>302</v>
@@ -2001,19 +2004,19 @@
         <v>2024</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>373</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>344</v>
@@ -2026,19 +2029,19 @@
         <v>2024</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>360</v>
+        <v>427</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>371</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>344</v>
@@ -2054,22 +2057,22 @@
         <v>443</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>344</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2080,22 +2083,22 @@
         <v>432</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>344</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2106,16 +2109,16 @@
         <v>442</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>342</v>
@@ -2126,7 +2129,7 @@
         <v>2024</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>246</v>
@@ -2158,7 +2161,7 @@
         <v>257</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>258</v>
@@ -2467,7 +2470,7 @@
         <v>2022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>25</v>
@@ -2661,7 +2664,7 @@
         <v>50</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>51</v>
@@ -2682,7 +2685,7 @@
         <v>2021</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>201</v>
@@ -2709,7 +2712,7 @@
         <v>2021</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>183</v>
@@ -2736,13 +2739,13 @@
         <v>2021</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>216</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -2763,7 +2766,7 @@
         <v>2021</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>219</v>
@@ -2790,7 +2793,7 @@
         <v>2021</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>272</v>
@@ -2844,7 +2847,7 @@
         <v>2020</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>326</v>
@@ -2871,7 +2874,7 @@
         <v>2020</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>21</v>
@@ -2952,13 +2955,13 @@
         <v>2020</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>70</v>
@@ -3006,7 +3009,7 @@
         <v>2020</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>133</v>
@@ -3033,7 +3036,7 @@
         <v>2020</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>195</v>
@@ -3060,7 +3063,7 @@
         <v>2020</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>222</v>
@@ -3114,7 +3117,7 @@
         <v>2019</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>58</v>
@@ -3141,7 +3144,7 @@
         <v>2019</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>276</v>
@@ -3168,7 +3171,7 @@
         <v>2018</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>15</v>
@@ -3195,7 +3198,7 @@
         <v>2018</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>64</v>
@@ -3222,7 +3225,7 @@
         <v>2018</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>99</v>
@@ -3249,7 +3252,7 @@
         <v>2018</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>118</v>
@@ -3276,7 +3279,7 @@
         <v>2018</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>124</v>
@@ -3303,7 +3306,7 @@
         <v>2018</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>137</v>
@@ -3330,7 +3333,7 @@
         <v>2018</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>183</v>
@@ -3357,7 +3360,7 @@
         <v>2018</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>280</v>
@@ -3384,7 +3387,7 @@
         <v>2017</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>82</v>
@@ -3410,7 +3413,7 @@
         <v>2017</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>103</v>
@@ -3436,7 +3439,7 @@
         <v>2017</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>176</v>
@@ -3462,7 +3465,7 @@
         <v>2016</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>69</v>
@@ -3488,7 +3491,7 @@
         <v>2016</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>107</v>
@@ -3514,7 +3517,7 @@
         <v>2016</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>141</v>
@@ -3540,13 +3543,13 @@
         <v>2016</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>197</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>198</v>
@@ -3566,7 +3569,7 @@
         <v>2016</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>205</v>
@@ -3592,13 +3595,13 @@
         <v>2015</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>47</v>
@@ -3644,7 +3647,7 @@
         <v>2015</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>145</v>
@@ -3670,7 +3673,7 @@
         <v>2015</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>158</v>
@@ -3696,7 +3699,7 @@
         <v>2015</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>225</v>
@@ -3722,7 +3725,7 @@
         <v>2015</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>250</v>
@@ -3748,13 +3751,13 @@
         <v>2015</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>283</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>284</v>
@@ -3774,7 +3777,7 @@
         <v>2014</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>39</v>
@@ -3800,7 +3803,7 @@
         <v>2014</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>54</v>
@@ -3826,13 +3829,13 @@
         <v>2014</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>74</v>
@@ -3852,7 +3855,7 @@
         <v>2014</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>91</v>
@@ -3878,7 +3881,7 @@
         <v>2014</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>128</v>
@@ -3904,7 +3907,7 @@
         <v>2014</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>149</v>
@@ -3930,7 +3933,7 @@
         <v>2014</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>185</v>
@@ -3956,13 +3959,13 @@
         <v>2014</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>286</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>287</v>
@@ -3982,7 +3985,7 @@
         <v>2014</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>289</v>
@@ -4008,7 +4011,7 @@
         <v>2013</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>190</v>
@@ -4034,7 +4037,7 @@
         <v>2013</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>228</v>
@@ -4060,7 +4063,7 @@
         <v>2012</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>111</v>
@@ -4086,13 +4089,13 @@
         <v>2012</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>293</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>70</v>
@@ -4112,7 +4115,7 @@
         <v>2012</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>296</v>
@@ -4127,7 +4130,7 @@
         <v>12</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>298</v>
@@ -4138,7 +4141,7 @@
         <v>2012</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>299</v>
@@ -4153,7 +4156,7 @@
         <v>12</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>300</v>
@@ -4164,13 +4167,13 @@
         <v>2008</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>43</v>
@@ -4190,7 +4193,7 @@
         <v>2007</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>233</v>
@@ -4216,7 +4219,7 @@
         <v>2006</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>236</v>

--- a/scripts/anoop_publications.xlsx
+++ b/scripts/anoop_publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankunchu\Documents\src\anoopkunchukuttan.github.io\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58830E9-5EFB-49A4-936C-83942BB38F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BDEAB6-64C1-4BFA-A12B-E4B04294B9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44880" yWindow="13680" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="451">
   <si>
     <t>pub_year</t>
   </si>
@@ -1383,6 +1383,9 @@
   </si>
   <si>
     <t>Anoop Kunchukuttan, Raj Dabre, Rudramurthy V, Mohammed Safi Ur Rahman, Thanmay Jayakumar</t>
+  </si>
+  <si>
+    <t>Speech/Indic/ASR</t>
   </si>
 </sst>
 </file>
@@ -1797,8 +1800,8 @@
   <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2236,7 +2239,7 @@
         <v>2023</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>172</v>

--- a/scripts/anoop_publications.xlsx
+++ b/scripts/anoop_publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankunchu\Documents\src\anoopkunchukuttan.github.io\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BDEAB6-64C1-4BFA-A12B-E4B04294B9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169F9C5F-28C5-41A9-805A-BF3CC52588EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="13680" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="448">
   <si>
     <t>pub_year</t>
   </si>
@@ -1160,9 +1160,6 @@
     <t>Extending English Large Language Models to New Languages: A Survey</t>
   </si>
   <si>
-    <t>NLP/Multilingual/Code-Mixing</t>
-  </si>
-  <si>
     <t>Cross-Lingual Auto Evaluation for Assessing Multilingual LLMs</t>
   </si>
   <si>
@@ -1271,9 +1268,6 @@
     <t>ICON</t>
   </si>
   <si>
-    <t>IR</t>
-  </si>
-  <si>
     <t>NLP/MWE</t>
   </si>
   <si>
@@ -1310,9 +1304,6 @@
     <t>NLP/Multilingual</t>
   </si>
   <si>
-    <t>Deep_Learning</t>
-  </si>
-  <si>
     <t>NLP/Transliteration/Multilingual/Indic</t>
   </si>
   <si>
@@ -1358,9 +1349,6 @@
     <t>NLP/Transliteration/Evaluation/Multilingual</t>
   </si>
   <si>
-    <t>Deep_Learning/Efficiency</t>
-  </si>
-  <si>
     <t>NLP/Translation/Evaluation/Indic</t>
   </si>
   <si>
@@ -1386,6 +1374,9 @@
   </si>
   <si>
     <t>Speech/Indic/ASR</t>
+  </si>
+  <si>
+    <t>Misc</t>
   </si>
 </sst>
 </file>
@@ -1800,8 +1791,8 @@
   <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1845,10 +1836,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>399</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1856,19 +1847,19 @@
         <v>2025</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>320</v>
@@ -1882,19 +1873,19 @@
         <v>2025</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>387</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>302</v>
@@ -1907,7 +1898,7 @@
         <v>2024</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>374</v>
@@ -1919,7 +1910,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>320</v>
@@ -1932,19 +1923,19 @@
         <v>2024</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>383</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>302</v>
@@ -1957,19 +1948,19 @@
         <v>2024</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>379</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>302</v>
@@ -1982,19 +1973,19 @@
         <v>2024</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>377</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>302</v>
@@ -2007,7 +1998,7 @@
         <v>2024</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>371</v>
@@ -2019,7 +2010,7 @@
         <v>372</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>344</v>
@@ -2032,7 +2023,7 @@
         <v>2024</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>369</v>
@@ -2044,7 +2035,7 @@
         <v>368</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>344</v>
@@ -2057,7 +2048,7 @@
         <v>2024</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>360</v>
@@ -2069,13 +2060,13 @@
         <v>361</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>344</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2083,7 +2074,7 @@
         <v>2024</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>362</v>
@@ -2095,13 +2086,13 @@
         <v>363</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>344</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2109,7 +2100,7 @@
         <v>2024</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>365</v>
@@ -2121,7 +2112,7 @@
         <v>366</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>342</v>
@@ -2132,7 +2123,7 @@
         <v>2024</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>246</v>
@@ -2158,7 +2149,7 @@
         <v>2024</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>257</v>
@@ -2187,7 +2178,7 @@
         <v>2023</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>154</v>
@@ -2213,7 +2204,7 @@
         <v>2023</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>163</v>
@@ -2239,7 +2230,7 @@
         <v>2023</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>172</v>
@@ -2265,7 +2256,7 @@
         <v>2023</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>321</v>
@@ -2291,7 +2282,7 @@
         <v>2023</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>209</v>
@@ -2317,7 +2308,7 @@
         <v>2023</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>239</v>
@@ -2343,7 +2334,7 @@
         <v>2023</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>242</v>
@@ -2369,7 +2360,7 @@
         <v>2023</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>254</v>
@@ -2395,7 +2386,7 @@
         <v>2023</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>261</v>
@@ -2421,7 +2412,7 @@
         <v>2023</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>265</v>
@@ -2447,7 +2438,7 @@
         <v>2023</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>269</v>
@@ -2473,7 +2464,7 @@
         <v>2022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>25</v>
@@ -2500,7 +2491,7 @@
         <v>2022</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>61</v>
@@ -2527,7 +2518,7 @@
         <v>2022</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>77</v>
@@ -2554,7 +2545,7 @@
         <v>2022</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>115</v>
@@ -2581,7 +2572,7 @@
         <v>2022</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>168</v>
@@ -2608,7 +2599,7 @@
         <v>2022</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>212</v>
@@ -2635,7 +2626,7 @@
         <v>2021</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>348</v>
@@ -2661,13 +2652,13 @@
         <v>2021</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>51</v>
@@ -2688,7 +2679,7 @@
         <v>2021</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>201</v>
@@ -2715,7 +2706,7 @@
         <v>2021</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>183</v>
@@ -2742,13 +2733,13 @@
         <v>2021</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>216</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -2769,7 +2760,7 @@
         <v>2021</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>219</v>
@@ -2823,7 +2814,7 @@
         <v>2020</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>9</v>
@@ -2850,7 +2841,7 @@
         <v>2020</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>326</v>
@@ -2904,7 +2895,7 @@
         <v>2020</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>29</v>
@@ -2931,7 +2922,7 @@
         <v>2020</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>35</v>
@@ -2958,13 +2949,13 @@
         <v>2020</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>70</v>
@@ -2985,7 +2976,7 @@
         <v>2020</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>121</v>
@@ -3012,7 +3003,7 @@
         <v>2020</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>133</v>
@@ -3039,7 +3030,7 @@
         <v>2020</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>195</v>
@@ -3066,7 +3057,7 @@
         <v>2020</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>222</v>
@@ -3093,7 +3084,7 @@
         <v>2019</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>31</v>
@@ -3120,7 +3111,7 @@
         <v>2019</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>58</v>
@@ -3174,7 +3165,7 @@
         <v>2018</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>15</v>
@@ -3201,7 +3192,7 @@
         <v>2018</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>64</v>
@@ -3228,7 +3219,7 @@
         <v>2018</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>99</v>
@@ -3255,7 +3246,7 @@
         <v>2018</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>118</v>
@@ -3282,7 +3273,7 @@
         <v>2018</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>124</v>
@@ -3309,7 +3300,7 @@
         <v>2018</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>137</v>
@@ -3336,7 +3327,7 @@
         <v>2018</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>183</v>
@@ -3390,7 +3381,7 @@
         <v>2017</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>82</v>
@@ -3442,7 +3433,7 @@
         <v>2017</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>176</v>
@@ -3468,7 +3459,7 @@
         <v>2016</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>69</v>
@@ -3494,7 +3485,7 @@
         <v>2016</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>107</v>
@@ -3546,7 +3537,7 @@
         <v>2016</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>197</v>
@@ -3598,13 +3589,13 @@
         <v>2015</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>47</v>
@@ -3650,7 +3641,7 @@
         <v>2015</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>145</v>
@@ -3702,7 +3693,7 @@
         <v>2015</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>225</v>
@@ -3754,13 +3745,13 @@
         <v>2015</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>283</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>284</v>
@@ -3780,7 +3771,7 @@
         <v>2014</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>39</v>
@@ -3806,7 +3797,7 @@
         <v>2014</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>54</v>
@@ -3838,7 +3829,7 @@
         <v>73</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>74</v>
@@ -3858,7 +3849,7 @@
         <v>2014</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>91</v>
@@ -3910,7 +3901,7 @@
         <v>2014</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>149</v>
@@ -3968,7 +3959,7 @@
         <v>286</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>287</v>
@@ -4014,7 +4005,7 @@
         <v>2013</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>190</v>
@@ -4040,7 +4031,7 @@
         <v>2013</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>228</v>
@@ -4066,7 +4057,7 @@
         <v>2012</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>111</v>
@@ -4098,7 +4089,7 @@
         <v>293</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>70</v>
@@ -4118,7 +4109,7 @@
         <v>2012</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>296</v>
@@ -4133,7 +4124,7 @@
         <v>12</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>298</v>
@@ -4159,7 +4150,7 @@
         <v>12</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>300</v>
@@ -4170,13 +4161,13 @@
         <v>2008</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>43</v>
@@ -4196,7 +4187,7 @@
         <v>2007</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>233</v>
@@ -4222,7 +4213,7 @@
         <v>2006</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>236</v>
